--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B302C239-8C78-4947-A0C3-0684AA7ACC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D9C48-60EF-4F91-BE01-7C93E3611914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="4" activeTab="5" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="12" activeTab="16" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="97">
   <si>
     <t>USERNAME</t>
   </si>
@@ -278,18 +278,6 @@
     <t>Patterson store</t>
   </si>
   <si>
-    <t>iSOAddonEmail</t>
-  </si>
-  <si>
-    <t>iSOAddonPwd</t>
-  </si>
-  <si>
-    <t>AgentOfficeEmail</t>
-  </si>
-  <si>
-    <t>AgentOfficePwd</t>
-  </si>
-  <si>
     <t>agentprimary@coffeetimer24.com</t>
   </si>
   <si>
@@ -302,24 +290,12 @@
     <t>Warren Natrual spa</t>
   </si>
   <si>
-    <t>agentOfficePrimaryEmail</t>
-  </si>
-  <si>
-    <t>agentOfficePrimaryPwd</t>
-  </si>
-  <si>
     <t>Noah Mer DBA</t>
   </si>
   <si>
     <t>Noah Spa</t>
   </si>
   <si>
-    <t>iSOAddOnEmail</t>
-  </si>
-  <si>
-    <t>iSOAddOnPwd</t>
-  </si>
-  <si>
     <t>rajeshpj@cloud-mail.top</t>
   </si>
   <si>
@@ -351,6 +327,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>AgentPrimaryPwd</t>
+  </si>
+  <si>
+    <t>ISOAddOnEmail</t>
+  </si>
+  <si>
+    <t>ISOAddOnPwd</t>
   </si>
 </sst>
 </file>
@@ -877,7 +862,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -972,7 +957,7 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>27</v>
@@ -1007,7 +992,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>76</v>
@@ -1022,10 +1007,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1086,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE755E79-5426-49D1-927F-FD4DF391BE76}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,10 +1106,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>50</v>
@@ -1181,7 +1166,7 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>27</v>
@@ -1216,7 +1201,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>76</v>
@@ -1231,10 +1216,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1295,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA0A691-68F1-4851-AB2C-C1CDDC697506}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,10 +1312,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>50</v>
@@ -1387,7 +1372,7 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>27</v>
@@ -1407,7 +1392,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>62</v>
@@ -1422,7 +1407,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>76</v>
@@ -1436,11 +1421,11 @@
       <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K2">
-        <v>12345</v>
+      <c r="K2" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1500,9 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F73294-574F-47F2-983F-FE05F32BD1B4}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1531,10 +1514,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>50</v>
@@ -1591,7 +1574,7 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>27</v>
@@ -1611,7 +1594,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>62</v>
@@ -1626,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>76</v>
@@ -1641,10 +1624,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1703,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FAAE98D-CBBA-4193-8D30-324512955C3B}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1767,7 +1750,7 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>27</v>
@@ -1787,16 +1770,16 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -1856,8 +1839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EC305-D0CB-4445-B864-56223248DE7D}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1867,14 +1850,15 @@
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="22.7265625" customWidth="1"/>
     <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>50</v>
@@ -1907,7 +1891,7 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>27</v>
@@ -1933,10 +1917,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -1994,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE00848-A519-42A4-AC10-B1553697A3B9}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,10 +1998,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>50</v>
@@ -2050,7 +2034,7 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>27</v>
@@ -2070,16 +2054,16 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -2097,7 +2081,7 @@
         <v>34</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>35</v>
@@ -2137,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC00A5E-BBFA-4D51-A5A5-260E3569093C}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2155,10 +2139,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>50</v>
@@ -2191,7 +2175,7 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>27</v>
@@ -2211,16 +2195,16 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -2240,8 +2224,8 @@
       <c r="J2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="6">
-        <v>999991</v>
+      <c r="K2" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>36</v>
@@ -2278,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2E5959-08A6-4DD3-802A-D5662CFE3B61}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2408,7 +2392,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -2417,7 +2401,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>
@@ -2493,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD378E3F-B89B-440E-9DFC-E4DE5C82F17D}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2593,7 +2577,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>27</v>
@@ -2625,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -2634,7 +2618,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>
@@ -2711,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0199BBB-85E2-4252-BC39-A69F2965ADDE}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2790,7 +2774,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>27</v>
@@ -2822,7 +2806,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -2904,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A077435-D7EB-484D-8D4C-8825BE253336}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3028,7 +3012,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -3037,7 +3021,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>
@@ -3112,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0578B6F-0735-4543-A852-4E9188B37570}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3210,7 +3194,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>27</v>
@@ -3242,7 +3226,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -3251,7 +3235,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>
@@ -3326,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF18B9C3-1495-4159-A879-4D4DA3111132}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3412,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>27</v>
@@ -3444,7 +3428,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -3453,7 +3437,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>
@@ -3529,7 +3513,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3616,7 +3600,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>27</v>
@@ -3648,7 +3632,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -3657,7 +3641,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>
@@ -3732,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0307CC-612E-41CD-AA63-E5633EBC0DFC}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3827,7 +3811,7 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="W1" s="7" t="s">
         <v>27</v>
@@ -3859,7 +3843,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>58</v>
@@ -3868,7 +3852,7 @@
         <v>45</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>46</v>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5D9C48-60EF-4F91-BE01-7C93E3611914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958A462-4F26-4B6F-AA18-AA7F00332722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="12" activeTab="16" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="1" activeTab="4" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="iso(Primary)MerchantWithFee" sheetId="12" r:id="rId2"/>
+    <sheet name="Iso(Primary)MerchantWithFee" sheetId="12" r:id="rId2"/>
     <sheet name="ISO(Primary)MerchantWithoutFee" sheetId="16" r:id="rId3"/>
     <sheet name="ISO(Addon)MerchantWithFee" sheetId="17" r:id="rId4"/>
     <sheet name="ISO(Addon)AddMerchantWithoutFee" sheetId="18" r:id="rId5"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="96">
   <si>
     <t>USERNAME</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Select Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MID</t>
   </si>
   <si>
     <t>Agent</t>
@@ -897,16 +894,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -957,48 +954,48 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>13</v>
@@ -1007,10 +1004,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1019,40 +1016,40 @@
         <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1106,16 +1103,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -1166,48 +1163,48 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>13</v>
@@ -1216,10 +1213,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1228,40 +1225,40 @@
         <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1312,16 +1309,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -1372,48 +1369,48 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>13</v>
@@ -1422,10 +1419,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1434,40 +1431,40 @@
         <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1514,16 +1511,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -1574,48 +1571,48 @@
         <v>25</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>13</v>
@@ -1624,10 +1621,10 @@
         <v>14</v>
       </c>
       <c r="K2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1636,40 +1633,40 @@
         <v>17</v>
       </c>
       <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1714,16 +1711,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>16</v>
@@ -1750,36 +1747,36 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -1788,40 +1785,40 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1855,16 +1852,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>16</v>
@@ -1891,36 +1888,36 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -1929,40 +1926,40 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1998,16 +1995,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>16</v>
@@ -2034,36 +2031,36 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -2072,40 +2069,40 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC00A5E-BBFA-4D51-A5A5-260E3569093C}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -2139,16 +2136,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>16</v>
@@ -2175,36 +2172,36 @@
         <v>25</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -2213,40 +2210,40 @@
         <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2262,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2E5959-08A6-4DD3-802A-D5662CFE3B61}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2297,10 +2294,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -2330,10 +2327,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -2360,63 +2357,63 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -2425,40 +2422,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2477,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD378E3F-B89B-440E-9DFC-E4DE5C82F17D}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2514,10 +2511,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -2547,10 +2544,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -2577,63 +2574,63 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -2642,40 +2639,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="U2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2695,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0199BBB-85E2-4252-BC39-A69F2965ADDE}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2711,10 +2708,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -2744,10 +2741,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -2774,61 +2771,61 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -2837,40 +2834,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2888,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A077435-D7EB-484D-8D4C-8825BE253336}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2917,10 +2914,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -2950,10 +2947,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -2980,63 +2977,63 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -3045,40 +3042,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="U2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3131,10 +3128,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -3164,10 +3161,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -3194,63 +3191,63 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -3259,40 +3256,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3333,10 +3330,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -3366,10 +3363,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -3396,63 +3393,63 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -3461,40 +3458,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="U2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3537,10 +3534,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -3570,10 +3567,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -3600,63 +3597,63 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -3665,40 +3662,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3748,10 +3745,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>12</v>
@@ -3781,10 +3778,10 @@
         <v>19</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>16</v>
@@ -3811,63 +3808,63 @@
         <v>25</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>17</v>
@@ -3876,40 +3873,40 @@
         <v>17</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="U2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B958A462-4F26-4B6F-AA18-AA7F00332722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ECBF2E-AC8B-48CD-BF7F-EB271A31BEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="1" activeTab="4" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="13" activeTab="18" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="ISO(A)AddTpn" sheetId="26" r:id="rId15"/>
     <sheet name="AgentOffice(P)AddTpn" sheetId="27" r:id="rId16"/>
     <sheet name="AgentOffice(A)AddTpn" sheetId="28" r:id="rId17"/>
+    <sheet name="SystemLoginDashboard" sheetId="29" r:id="rId18"/>
+    <sheet name="SystemLoginTransaction" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="101">
   <si>
     <t>USERNAME</t>
   </si>
@@ -333,13 +335,28 @@
   </si>
   <si>
     <t>ISOAddOnPwd</t>
+  </si>
+  <si>
+    <t>SystemPrimaryEmail</t>
+  </si>
+  <si>
+    <t>SystemPrimaryPWD</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +400,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -467,6 +498,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1277,9 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA0A691-68F1-4851-AB2C-C1CDDC697506}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2250,6 +2280,97 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3F25A604-5D93-4EE0-BCA8-C2351D732A44}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{C9948E9D-5DE5-4DBD-8BB5-A36D69BBFE74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD237D57-EF3B-450C-BCDA-635CAD1C69EA}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.90625" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{6498C75C-7BF4-42B2-8F17-9AAD08DF9A4D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{4C49319C-DB9A-40A5-9E7D-FA6084AD9004}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF51A8-1278-47BF-B39F-EB761BD58E51}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D995C19C-73E5-4D94-9CFC-E9F7E5BB06EE}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{DD527FF8-7316-4F3A-863E-FA7EC134E824}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2885,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A077435-D7EB-484D-8D4C-8825BE253336}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IntelljWorkspaces\src\main\java\com\denovo\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DenovoPortal Automation Monitoring System\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5ECBF2E-AC8B-48CD-BF7F-EB271A31BEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86B90D-6FFF-4667-8575-BFB4215756CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="13" activeTab="18" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="825" firstSheet="13" activeTab="18" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,8 @@
     <sheet name="AgentOffice(P)AddTpn" sheetId="27" r:id="rId16"/>
     <sheet name="AgentOffice(A)AddTpn" sheetId="28" r:id="rId17"/>
     <sheet name="SystemLoginDashboard" sheetId="29" r:id="rId18"/>
-    <sheet name="SystemLoginTransaction" sheetId="30" r:id="rId19"/>
+    <sheet name="IsoLoginDashboard" sheetId="31" r:id="rId19"/>
+    <sheet name="SystemLoginTransaction" sheetId="30" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="102">
   <si>
     <t>USERNAME</t>
   </si>
@@ -350,6 +351,9 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>ISOPrimaryPWD</t>
   </si>
 </sst>
 </file>
@@ -2290,7 +2294,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2332,25 +2336,26 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF51A8-1278-47BF-B39F-EB761BD58E51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B261820-8774-4728-8342-FA5627569B01}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>98</v>
@@ -2364,13 +2369,13 @@
         <v>61</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D995C19C-73E5-4D94-9CFC-E9F7E5BB06EE}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{DD527FF8-7316-4F3A-863E-FA7EC134E824}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B696F878-68BE-4A0F-850D-67EDB267A5A6}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{DFD8D6F5-0E95-43A1-BFC0-DA293B4BDB1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2588,6 +2593,51 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF51A8-1278-47BF-B39F-EB761BD58E51}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D995C19C-73E5-4D94-9CFC-E9F7E5BB06EE}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{DD527FF8-7316-4F3A-863E-FA7EC134E824}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DenovoPortal Automation Monitoring System\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86B90D-6FFF-4667-8575-BFB4215756CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6392EBB-CFCC-48FA-A5B6-98B5C0D9890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="825" firstSheet="13" activeTab="18" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="20" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="SystemLoginDashboard" sheetId="29" r:id="rId18"/>
     <sheet name="IsoLoginDashboard" sheetId="31" r:id="rId19"/>
     <sheet name="SystemLoginTransaction" sheetId="30" r:id="rId20"/>
+    <sheet name="IsoLoginTransaction" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="103">
   <si>
     <t>USERNAME</t>
   </si>
@@ -354,6 +355,9 @@
   </si>
   <si>
     <t>ISOPrimaryPWD</t>
+  </si>
+  <si>
+    <t>suknecosti@vusra.com</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B261820-8774-4728-8342-FA5627569B01}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2363,7 +2367,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -2374,8 +2378,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B696F878-68BE-4A0F-850D-67EDB267A5A6}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{DFD8D6F5-0E95-43A1-BFC0-DA293B4BDB1E}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DFD8D6F5-0E95-43A1-BFC0-DA293B4BDB1E}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{539C05B2-CFA6-465E-B41C-D9E23910CCBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2600,7 +2604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF51A8-1278-47BF-B39F-EB761BD58E51}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2608,6 +2612,7 @@
   <cols>
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
     <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -2636,6 +2641,52 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D995C19C-73E5-4D94-9CFC-E9F7E5BB06EE}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{DD527FF8-7316-4F3A-863E-FA7EC134E824}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C57487-1B7E-4B61-ABD8-D1204A496E09}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4C5F86C1-1388-4B8C-B27C-71B0E3F68977}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{70A515F0-FCDB-417E-A673-D32C2D739EAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DenovoPortal Automation Monitoring System\src\main\java\com\denovo\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPOSPAYS-Automation-Monitoring-System\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6392EBB-CFCC-48FA-A5B6-98B5C0D9890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F5227-751F-42E6-ABAB-DD31C0B4D867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="20" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="17" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="104">
   <si>
     <t>USERNAME</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>suknecosti@vusra.com</t>
+  </si>
+  <si>
+    <t>safari</t>
   </si>
 </sst>
 </file>
@@ -2295,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD237D57-EF3B-450C-BCDA-635CAD1C69EA}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2330,10 +2333,23 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{6498C75C-7BF4-42B2-8F17-9AAD08DF9A4D}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{4C49319C-DB9A-40A5-9E7D-FA6084AD9004}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{E5708D5C-FBF7-4EFD-B312-EAC1F4DBF8FF}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{6E4633AE-5139-4A43-8B1D-AAC7984396FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2341,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B261820-8774-4728-8342-FA5627569B01}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2376,10 +2392,23 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{DFD8D6F5-0E95-43A1-BFC0-DA293B4BDB1E}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{539C05B2-CFA6-465E-B41C-D9E23910CCBB}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{65D10483-A452-4066-A90B-B9763921F017}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{7B0348BC-8246-4B46-A5CA-0D8B0561F2F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2602,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF51A8-1278-47BF-B39F-EB761BD58E51}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2637,10 +2666,23 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D995C19C-73E5-4D94-9CFC-E9F7E5BB06EE}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{DD527FF8-7316-4F3A-863E-FA7EC134E824}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{8461F8E8-F76D-4554-BB2D-70605F40DD66}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{7F2B3614-108B-45A6-A23F-18EA16D9FB55}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2648,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C57487-1B7E-4B61-ABD8-D1204A496E09}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2683,10 +2725,23 @@
         <v>99</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{4C5F86C1-1388-4B8C-B27C-71B0E3F68977}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{70A515F0-FCDB-417E-A673-D32C2D739EAF}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{D46CFA31-2524-4C57-9F40-475DF0B22D67}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{0FB8AE65-6A07-4BAD-91ED-B2165BF3E791}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPOSPAYS-Automation-Monitoring-System\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F5227-751F-42E6-ABAB-DD31C0B4D867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C1733E-3DAD-49EC-BD42-4C45A2FDC3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="17" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="20" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="103">
   <si>
     <t>USERNAME</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>suknecosti@vusra.com</t>
-  </si>
-  <si>
-    <t>safari</t>
   </si>
 </sst>
 </file>
@@ -2300,7 +2297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD237D57-EF3B-450C-BCDA-635CAD1C69EA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2341,7 +2338,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2400,7 +2397,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2631,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2674,7 +2671,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C57487-1B7E-4B61-ABD8-D1204A496E09}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2733,7 +2730,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPOSPAYS-Automation-Monitoring-System\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C1733E-3DAD-49EC-BD42-4C45A2FDC3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158561E6-D992-41CA-BBE5-5075257FBA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="20" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="17" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="104">
   <si>
     <t>USERNAME</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>suknecosti@vusra.com</t>
+  </si>
+  <si>
+    <t>safari</t>
   </si>
 </sst>
 </file>
@@ -2297,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD237D57-EF3B-450C-BCDA-635CAD1C69EA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2338,7 +2341,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2400,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2674,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C57487-1B7E-4B61-ABD8-D1204A496E09}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2733,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPOSPAYS-Automation-Monitoring-System\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158561E6-D992-41CA-BBE5-5075257FBA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599556CB-9387-4436-8F0B-5605B89B5508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="17" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="19" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,10 @@
     <sheet name="AgentOffice(P)AddTpn" sheetId="27" r:id="rId16"/>
     <sheet name="AgentOffice(A)AddTpn" sheetId="28" r:id="rId17"/>
     <sheet name="SystemLoginDashboard" sheetId="29" r:id="rId18"/>
-    <sheet name="IsoLoginDashboard" sheetId="31" r:id="rId19"/>
-    <sheet name="SystemLoginTransaction" sheetId="30" r:id="rId20"/>
-    <sheet name="IsoLoginTransaction" sheetId="32" r:id="rId21"/>
+    <sheet name="SystemLoginMerchant" sheetId="33" r:id="rId19"/>
+    <sheet name="IsoLoginDashboard" sheetId="31" r:id="rId20"/>
+    <sheet name="SystemLoginTransaction" sheetId="30" r:id="rId21"/>
+    <sheet name="IsoLoginTransaction" sheetId="32" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="104">
   <si>
     <t>USERNAME</t>
   </si>
@@ -2300,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD237D57-EF3B-450C-BCDA-635CAD1C69EA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2356,26 +2357,26 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B261820-8774-4728-8342-FA5627569B01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36FD959-4446-4EB0-8D72-1B0206E52EDC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>98</v>
@@ -2383,7 +2384,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -2394,7 +2395,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
@@ -2405,10 +2406,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{DFD8D6F5-0E95-43A1-BFC0-DA293B4BDB1E}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{539C05B2-CFA6-465E-B41C-D9E23910CCBB}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{65D10483-A452-4066-A90B-B9763921F017}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{7B0348BC-8246-4B46-A5CA-0D8B0561F2F5}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{AB6769B7-656D-4D1D-8728-D3377287F645}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{B10273FD-D193-4695-B95B-6D1A2C4C9D0D}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{798DC085-4905-4D58-889A-BDB4CD64C5CD}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{10C7C658-EF0E-42C3-ADB4-78A3F6163179}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2630,6 +2631,65 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B261820-8774-4728-8342-FA5627569B01}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DFD8D6F5-0E95-43A1-BFC0-DA293B4BDB1E}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{539C05B2-CFA6-465E-B41C-D9E23910CCBB}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{65D10483-A452-4066-A90B-B9763921F017}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{7B0348BC-8246-4B46-A5CA-0D8B0561F2F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF51A8-1278-47BF-B39F-EB761BD58E51}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2688,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C57487-1B7E-4B61-ABD8-D1204A496E09}">
   <dimension ref="A1:C3"/>
   <sheetViews>

--- a/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
+++ b/src/main/java/com/denovo/ExcelData/SE_DataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IPOSPAYS-Automation-Monitoring-System\src\main\java\com\denovo\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599556CB-9387-4436-8F0B-5605B89B5508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38E8BA1-2831-4182-A6F5-9FFAB2D48BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="825" firstSheet="16" activeTab="19" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="825" firstSheet="14" activeTab="17" xr2:uid="{7F7405CC-6F03-4509-8AFD-A92E532AE18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="109">
   <si>
     <t>USERNAME</t>
   </si>
@@ -352,9 +352,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>ISOPrimaryPWD</t>
   </si>
   <si>
@@ -362,6 +359,24 @@
   </si>
   <si>
     <t>safari</t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>IsoLoginDashboardTest</t>
+  </si>
+  <si>
+    <t>SystemLoginMerchant</t>
+  </si>
+  <si>
+    <t>IsoLoginDashboard</t>
+  </si>
+  <si>
+    <t>SystemLoginTransaction</t>
+  </si>
+  <si>
+    <t>IsoLoginTransaction</t>
   </si>
 </sst>
 </file>
@@ -2299,20 +2314,21 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD237D57-EF3B-450C-BCDA-635CAD1C69EA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.90625" customWidth="1"/>
     <col min="2" max="2" width="31.1796875" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>96</v>
       </c>
@@ -2322,8 +2338,11 @@
       <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2331,10 +2350,13 @@
         <v>61</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2364,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2358,20 +2383,21 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36FD959-4446-4EB0-8D72-1B0206E52EDC}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.1796875" customWidth="1"/>
     <col min="2" max="2" width="35.453125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>96</v>
       </c>
@@ -2381,8 +2407,11 @@
       <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2390,10 +2419,13 @@
         <v>61</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2433,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2632,50 +2667,60 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B261820-8774-4728-8342-FA5627569B01}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="29.453125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2691,20 +2736,21 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FF51A8-1278-47BF-B39F-EB761BD58E51}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.1796875" customWidth="1"/>
     <col min="2" max="2" width="39.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>96</v>
       </c>
@@ -2714,8 +2760,11 @@
       <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2725,8 +2774,11 @@
       <c r="C2" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2734,7 +2786,10 @@
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2805,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C57487-1B7E-4B61-ABD8-D1204A496E09}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2761,22 +2816,26 @@
     <col min="1" max="1" width="38.7265625" customWidth="1"/>
     <col min="2" max="2" width="35.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>61</v>
@@ -2784,16 +2843,22 @@
       <c r="C2" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
